--- a/examples/Multi-regional Energy System Workflow/InputData/SpatialData/ElectricGrid/DCcableLosses.xlsx
+++ b/examples/Multi-regional Energy System Workflow/InputData/SpatialData/ElectricGrid/DCcableLosses.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LaraWelder\Documents\Python\FINE\FINE\example\InputData\SpatialData\ElectricGrid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Models\FINE_GITLAB_TSA\FINE\examples\Multi-regional Energy System Workflow\InputData\SpatialData\ElectricGrid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C4EF2B-8B51-42BA-BA36-3CBFB39256DE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,23 +200,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -253,23 +235,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,14 +410,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -479,7 +446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,11 +454,11 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
@@ -502,24 +469,24 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="I2" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -537,15 +504,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C4" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -554,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -566,7 +533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -592,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -606,17 +573,17 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
@@ -624,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -641,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -653,12 +620,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -682,12 +649,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -696,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
